--- a/_pedro/notas/musa87.xlsx
+++ b/_pedro/notas/musa87.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27586114-8EDB-884C-9B5C-6A20B1FA5641}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD257F9-0AA9-BE49-A682-F045C4A3E8CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,30 +486,16 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2.5</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -519,30 +505,16 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2.5</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
-        <v>8.7200000000000006</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -552,30 +524,16 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -585,30 +543,16 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2.5</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>SUM(B5:H5)</f>
-        <v>5.95</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -618,30 +562,16 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2.5</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>

--- a/_pedro/notas/musa87.xlsx
+++ b/_pedro/notas/musa87.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD257F9-0AA9-BE49-A682-F045C4A3E8CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE520301-01FD-7647-9A38-B203ADB29D9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
@@ -19,6 +19,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -441,7 +446,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +491,9 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -495,7 +502,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -505,7 +512,9 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>1.25</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -514,7 +523,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -524,7 +533,9 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -533,7 +544,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -543,7 +554,9 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.6</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -552,7 +565,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>SUM(B5:H5)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -562,7 +575,9 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>1.25</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -571,7 +586,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>

--- a/_pedro/notas/musa87.xlsx
+++ b/_pedro/notas/musa87.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE520301-01FD-7647-9A38-B203ADB29D9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D7B03B-A86F-D94B-9CBD-72D10CDB879F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
@@ -19,11 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -446,7 +441,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,15 +489,19 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
-        <v>1</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -515,15 +514,19 @@
       <c r="B3" s="2">
         <v>1.25</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.25</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -536,15 +539,19 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.25</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -557,15 +564,19 @@
       <c r="B5" s="2">
         <v>0.6</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>SUM(B5:H5)</f>
-        <v>0.6</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -578,15 +589,19 @@
       <c r="B6" s="2">
         <v>1.25</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.25</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>

--- a/_pedro/notas/musa87.xlsx
+++ b/_pedro/notas/musa87.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D7B03B-A86F-D94B-9CBD-72D10CDB879F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CEDF0E-D529-1A49-A9CD-B96A3352408B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nome</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Sidnei Marques De Oliveira</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -441,7 +438,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,16 +492,15 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>1.25</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
-        <v>3.25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -520,16 +516,15 @@
       <c r="D3" s="2">
         <v>1.25</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>1.25</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
-        <v>3.75</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -545,16 +540,15 @@
       <c r="D4" s="2">
         <v>1.25</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0.6</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -570,7 +564,9 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -578,9 +574,6 @@
         <f>SUM(B5:H5)</f>
         <v>1.85</v>
       </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -595,16 +588,15 @@
       <c r="D6" s="2">
         <v>1.25</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>1.25</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musa87.xlsx
+++ b/_pedro/notas/musa87.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CEDF0E-D529-1A49-A9CD-B96A3352408B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1239BC72-91BF-3947-BE13-CF7CDE47BB2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,12 +495,16 @@
       <c r="E2" s="2">
         <v>1.25</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -519,12 +523,16 @@
       <c r="E3" s="2">
         <v>1.25</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.25</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -543,12 +551,16 @@
       <c r="E4" s="2">
         <v>0.6</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -567,12 +579,16 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3">
         <f>SUM(B5:H5)</f>
-        <v>1.85</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -591,12 +607,16 @@
       <c r="E6" s="2">
         <v>1.25</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.25</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musa87.xlsx
+++ b/_pedro/notas/musa87.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1239BC72-91BF-3947-BE13-CF7CDE47BB2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA54B06-2D8E-6A42-8B42-4E054889AFA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Nome</t>
   </si>
@@ -70,6 +75,9 @@
   </si>
   <si>
     <t>Sidnei Marques De Oliveira</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -438,7 +446,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,10 +509,15 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
       <c r="I2" s="3">
         <f>SUM(B2:H2)</f>
-        <v>6.75</v>
+        <v>8.75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -534,6 +547,9 @@
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
         <v>7.5</v>
       </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -557,10 +573,15 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>6.35</v>
+        <v>8.85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -585,10 +606,15 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I5" s="3">
         <f>SUM(B5:H5)</f>
-        <v>4.0999999999999996</v>
+        <v>6.6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -613,10 +639,15 @@
       <c r="G6" s="2">
         <v>1.25</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>2.5</v>
+      </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musa87.xlsx
+++ b/_pedro/notas/musa87.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA54B06-2D8E-6A42-8B42-4E054889AFA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A1B1B0-5387-3649-87C2-F54FC023D20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{0F653A56-3787-D649-A495-8EB2FAFB69E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,10 +542,12 @@
       <c r="G3" s="2">
         <v>1.25</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>1.25</v>
+      </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I6" si="0">SUM(B3:H3)</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
